--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1417.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1417.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.574252572660543</v>
+        <v>1.186790347099304</v>
       </c>
       <c r="B1">
-        <v>2.044413248885757</v>
+        <v>1.17013418674469</v>
       </c>
       <c r="C1">
-        <v>2.272136798875354</v>
+        <v>6.788376808166504</v>
       </c>
       <c r="D1">
-        <v>2.609291367850157</v>
+        <v>2.065802574157715</v>
       </c>
       <c r="E1">
-        <v>3.415532272119591</v>
+        <v>1.139171838760376</v>
       </c>
     </row>
   </sheetData>
